--- a/excel/analizator_kwasu_mlekowego.xlsx
+++ b/excel/analizator_kwasu_mlekowego.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>data</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>6.69</t>
   </si>
 </sst>
 </file>
@@ -72,9 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -355,40 +359,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/analizator_kwasu_mlekowego.xlsx
+++ b/excel/analizator_kwasu_mlekowego.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>data</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>6.69</t>
   </si>
 </sst>
 </file>
@@ -351,7 +348,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -362,7 +359,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -393,13 +390,9 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>7</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
